--- a/GPH GU 2353 3353_Codebook for Group A Plus Data_FinalProject.xlsx
+++ b/GPH GU 2353 3353_Codebook for Group A Plus Data_FinalProject.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Variable Name</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Response categories</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Variable Used</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Name of the Country</t>
+    <t>Categorical, Name of the Country</t>
   </si>
   <si>
     <t>No</t>
@@ -49,7 +49,23 @@
     <t>Life.expectancy</t>
   </si>
   <si>
-    <t>Life Expectancy in age</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Life Expectancy in age </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(Main Outcome)</t>
+    </r>
   </si>
   <si>
     <t>Yes</t>
@@ -94,7 +110,23 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Average Body Mass Index of entire population</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Average Body Mass Index of entire population </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(Main Focus)</t>
+    </r>
   </si>
   <si>
     <t>under.five.deaths</t>
@@ -166,17 +198,58 @@
     <t>Developing</t>
   </si>
   <si>
-    <t>Recode Developed or Developing status</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Recode Developed or Developing status</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> (Moderator)</t>
+    </r>
   </si>
   <si>
     <t>1 = Develped Country, 0 =  Developing Country</t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Recode Expenditure on health as a percentage of Gross Domestic Product per capita(%)  </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="&quot;Times New Roman&quot;"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(Moderator)</t>
+    </r>
+  </si>
+  <si>
+    <t>1 = percentage expenditure less than 65, 0 =  percentage expenditure greater than 65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -190,31 +263,17 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Lucida Console&quot;"/>
-    </font>
-    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -228,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -241,14 +300,11 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,10 +549,10 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -507,10 +563,10 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -521,10 +577,10 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -532,13 +588,13 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -549,10 +605,10 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -563,10 +619,10 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -577,10 +633,10 @@
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -591,10 +647,10 @@
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -605,10 +661,10 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -619,10 +675,10 @@
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -630,13 +686,13 @@
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -647,10 +703,10 @@
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -661,10 +717,10 @@
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -675,10 +731,10 @@
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -689,10 +745,10 @@
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -703,10 +759,10 @@
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -717,10 +773,10 @@
       <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -731,10 +787,10 @@
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -745,10 +801,10 @@
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -759,10 +815,10 @@
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -773,10 +829,10 @@
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -787,10 +843,10 @@
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -798,13 +854,27 @@
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
